--- a/add-columns/ics_techniques_new.xlsx
+++ b/add-columns/ics_techniques_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="828">
   <si>
     <t>ID</t>
   </si>
@@ -820,22 +820,22 @@
     <t>Wireless Sniffing</t>
   </si>
   <si>
-    <t>Block Reporting Message (T0804), Spoof Reporting Message (T0856), Modify Parameter (T0836), Unauthorized Command Message (T0855)</t>
+    <t>Spoof Reporting Message (T0856), Unauthorized Command Message (T0855), Block Reporting Message (T0804), Modify Parameter (T0836)</t>
   </si>
   <si>
     <t>Program Upload (T0845), Program Download (T0843)</t>
   </si>
   <si>
-    <t>Loss of Safety (T0880), Loss of Control (T0827), Loss of Productivity and Revenue (T0828)</t>
-  </si>
-  <si>
-    <t>Command-Line Interface (T0807), Scripting (T0853), Automated Collection (T0802)</t>
-  </si>
-  <si>
-    <t>Remote System Information Discovery (T0888), Device Restart/Shutdown (T0816)</t>
-  </si>
-  <si>
-    <t>Remote System Information Discovery (T0888), System Firmware (T0857)</t>
+    <t>Loss of Productivity and Revenue (T0828), Loss of Control (T0827), Loss of Safety (T0880)</t>
+  </si>
+  <si>
+    <t>Automated Collection (T0802), Scripting (T0853), Command-Line Interface (T0807)</t>
+  </si>
+  <si>
+    <t>Device Restart/Shutdown (T0816), Remote System Information Discovery (T0888)</t>
+  </si>
+  <si>
+    <t>System Firmware (T0857), Remote System Information Discovery (T0888)</t>
   </si>
   <si>
     <t>Default Credentials (T0812)</t>
@@ -847,7 +847,10 @@
     <t>External Remote Services (T0822), Exploit Public-Facing Application (T0819)</t>
   </si>
   <si>
-    <t>Alarm Suppression (T0878)</t>
+    <t>Impact (TA0105), Alarm Suppression (T0878)</t>
+  </si>
+  <si>
+    <t>Impact (TA0105)</t>
   </si>
   <si>
     <t>System Firmware (T0857)</t>
@@ -856,10 +859,13 @@
     <t>System Firmware (T0857), Network Sniffing (T0842)</t>
   </si>
   <si>
-    <t>Modify Controller Tasking (T0821), Modify Program (T0889)</t>
-  </si>
-  <si>
-    <t>Program Download (T0843), Valid Accounts (T0859), Graphical User Interface (T0823)</t>
+    <t>Modify Program (T0889), Modify Controller Tasking (T0821)</t>
+  </si>
+  <si>
+    <t>Execution (TA0104), Persistence (TA0110)</t>
+  </si>
+  <si>
+    <t>Valid Accounts (T0859), Graphical User Interface (T0823), Program Download (T0843)</t>
   </si>
   <si>
     <t>User Execution (T0863)</t>
@@ -1331,259 +1337,259 @@
     <t xml:space="preserve">  activate firmware update mode device prevent expect response function engage reaction emergency process malfunction example device protection relay operation mode design firmware installation mode halt process monitoring related function allow new firmware load device leave update mode place inactive hold state firmware provide enter leave device mode   deny usual functionality</t>
   </si>
   <si>
-    <t>privileged network access seek modify network traffic real time -in middle aitm attack   type attack allow   intercept traffic and/or particular device network aitm attack establish   ability block log modify inject traffic communication stream way accomplish attack common address resolution protocol arp poisoning use proxy citation bonnie zhu anthony joseph shankar sastry 2011   aitm attack allow   perform follow attack   block report message](https://attack.mitre.org technique t0804 spoof report message](https://attack.mitre.org technique t0856 modify parameter](https://attack.mitre.org technique t0836 unauthorized command message](https://attack.mitre.org technique t0855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  target protection function alarm prevent notify operator critical condition alarm message overall reporting system particular interest disruption alarm system imply disruption reporting system whole.a secura presentation target ot note dual fold goal   attempt alarm suppression prevent outgoing alarm raise prevent incoming alarm respond citation jos wetzel marina krotofil 2019 method suppression greatly depend type alarm question   alarm raise protocol message alarm signal o alarm bit set flag read ics environment   suppress contend multiple alarm and/or alarm propagation achieve specific goal evade detection prevent intend response occur citation jos wetzel marina krotofil 2019   method suppression involve tamper alter device display log modify memory code fix value tamper assembly level instruction code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  automate collection industrial environment information tool script automated collection leverage native control protocol tool available control system environment example opc protocol enumerate gather information access system interface native protocol allow collection enumeration attach communicate server device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  leverage autorun functionality script execute malicious code device configure enable autorun functionality legacy operating system susceptible abuse feature run malicious code store form removeable medium i.e. usb disk image .iso commonly autorun autoplay disabled operating system configuration mitigate technique device configure enable autorun autoplay   execute code device mount removable medium device physical virtual mean especially relevant virtual machine environment disk image dynamically map guest system hypervisor   example include gain access hypervisor management interface modify virtual machine hardware configuration deploy iso image malicious autorun script cause virtual machine automatically execute code contain disk image enable execution malicious code virtual machine need prior remote access system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  block command message reach intended target prevent command execution ot network command message send provide instruction control system device block command message inhibit response function correct disruption unsafe condition citation bonnie zhu anthony joseph shankar sastry 2011   citation electricity information sharing analysis center sans industrial control system march 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  block prevent reporting message reach intended target control system report message contain telemetry datum e.g. o value pertain current state equipment industrial process block reporting message   potentially hide action operator.blocking reporting message control system manage physical process contribute system impact cause inhibition response function control system able respond proper timely manner event dangerous fault corresponding reporting message block citation bonnie zhu anthony joseph shankar sastry 2011   citation electricity information sharing analysis center sans industrial control system march 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  block access serial com prevent instruction configuration reach target device serial communication port com allow communication control system device device receive command configuration message serial com device use serial com send command report message block device serial com block command message block reporting message serial ethernet converter connect serial com facilitate communication serial ethernet device approach block serial com create hold open tcp session ethernet converter serial ethernet converter port open facilitate multiple communication example serial com available 1 2 3 converter listen correspond port 20001 20002 20003 tcp ip connection open port hold open port unavailable use party way achieve initiate tcp session serial ethernet converter 10.0.0.1 telnet serial port 1 following command telnet 10.0.0.1 20001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  repetitively successively change o point value perform action brute force o achieve change range o point value single point value repeatedly manipulate process function goal information target environment influence option choose case brute force range point value   able achieve impact target specific point case single point target   able generate instability process function associate particular point   use brute force o cause failure industrial process failure result wear equipment damage downstream equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  modify software device credential prevent operator responder access depend device modification addition password prevent device configuration action accomplish require factory reset replacement hardware credential build feature provide device vendor means restrict access management interfaces.with access valid hardcode credential change credential prevent future authorize device access change credential especially damaging pair technique modify program datum destruction modify controller tasking case device configuration destroy include malicious action process environment remove normal device configuration action additionally recovery device original configuration difficult depend feature provide device case password remove onsite require device send vendor additional recovery steps.a chain incident occur germany lock operator building automation system bas controller enable previously unset bcu key  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  change operate mode controller gain additional access engineering function program download    programmable controller typically mode operation control state user program control access controller api operating mode physically select key switch face controller select call controller api operating mode mechanism select vary vendor product line commonly implement operating mode describe   program mode enable change device program allow program upload download device engineering workstation plcs logic halt output force citation n.a october 2017   run execution device program occur mode input output value point tag element etc monitor accord program logic program upload](https://attack.mitre.org technique t0845 program download](https://attack.mitre.org technique t0843 disabled mode     citation n.a october 2017     remote allow remote change plcs operation mode      stop plc program stop mode output force     reset condition plc reset original state warm reset retain memory cold reset reset o data register     test monitor mode similar run mode o process mode allow monitoring force set reset generally tune debugging system monitor mode trial initialization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  utilize command line interface cli interact system execute command cli provide mean interact computer system common feature type platform device control system environment citation enterprise att&amp;ck january 2018   use cli install run new software include malicious tool instal course operation.cli typically access locally expose service ssh telnet rdp   command execute cli execute current permission level process run terminal emulator command specify change permission context controller cli interface management purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  communicate commonly port bypass firewall network detection system blend normal network activity avoid detailed inspection use protocol associate port completely different protocol use commonly open port example provide    tcp:80 http   tcp:443 https   tcp udp:53 dns   tcp:1024 4999 opc xp win2k3   tcp:49152 65535 opc vista later   tcp:23 telnet   udp:161 snmp   tcp:502 modbus   tcp:102 s7comm iso tsap   tcp:20000 dnp3   tcp:44818 ethernet ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use connection proxy direct network traffic system act intermediary network communications.the definition proxy expand encompass trust relationship network peer peer mesh trust connection network consist host system regularly communicate other.the network single organization multiple organization trust relationship use type relationship manage command control communication reduce number simultaneous outbound network connection provide resiliency face connection loss ride exist trust communication path victim avoid suspicion citation enterprise att&amp;ck january 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  cause damage destruction property infrastructure equipment surround environment attack control system technique result device operational equipment breakdown represent tangential damage technique attack depend severity physical damage disruption cause control process system technique result loss safety](https://attack.mitre.org technique t0880 operation result loss control](https://attack.mitre.org technique t0827 cause damage property directly indirectly motivate seek cause impact form loss productivity revenue](https://attack.mitre.org technique t0828 german federal office information security bsi report targeted attack steel mill incident affect business section 2014 security report    target attack affect industrial operation result breakdown control system component entire installation result breakdown massive impact damage result uncontrolled shutdown blast furnace polish student remote controller device interface lodz city tram system poland     remote student able capture replay legitimate tram signal result damage impact tram people surround property reportedly tram derail force emergency stop   command issue student result tram collision cause harm board environment outside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perform datum destruction course operation   drop create malware tool non native file target system accomplish potentially leave trace malicious activity non native file datum remove course intrusion maintain small footprint standard post intrusion cleanup process citation enterprise att&amp;ck january 2018)data destruction render operator interface unable respond disrupt response function occur expect   destroy data backup vital recovery incident.standard file deletion command available operating system device interface perform cleanup   use tool example window sysinternal sdelete active@ killdisk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  target collect datum information repository include sensitive datum specification schematic diagram control system layout device process example information repository include reference database process environment database corporate network contain information ics.(citation cybersecurity infrastructure security agency march 2018)information collect system provide well understanding operational environment vendor process procedure ics.in campaign 2011 2013 ong organization chinese state sponsor actor search document repository specific information system manual remote terminal unit rtu site personnel list document include string scad user credential remote dial access information citation cisa aa21 201a pipeline intrusion july 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  target collect datum local system source file system configuration file local database include sensitive datum specification schematic diagram control system layout device process command line interface](https://attack.mitre.org technique t0807 scripting](https://attack.mitre.org technique t0853 technique interact file system gather information   use automate collection](https://attack.mitre.org technique t0802 local system</t>
+    <t xml:space="preserve">privileged network access seek modify network traffic real time in middle AiTM attack   type attack allow   intercept traffic andor particular device network AiTM attack establish   ability block log modify inject traffic communication stream way accomplish attack common Address Resolution Protocol ARP poisoning use proxy citation Bonnie Zhu Anthony Joseph Shankar Sastry 2011   AiTM attack allow   perform follow attack  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  target protection function alarm prevent notify operator critical condition alarm message overall reporting system particular interest disruption alarm system imply disruption reporting system secura presentation target OT note dual fold goal   attempt alarm suppression prevent outgoing alarm raise prevent incoming alarm respond citation Jos Wetzels Marina Krotofil 2019 method suppression greatly depend type alarm question   alarm raise protocol message alarm signal o alarm bit set flag read ICS environment   suppress contend multiple alarm andor alarm propagation achieve specific goal evade detection prevent intend response occur citation Jos Wetzels Marina Krotofil 2019   method suppression involve tamper alter device display log modify memory code fix value tamper assembly level instruction code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  automate collection industrial environment information tool script automated collection leverage native control protocol tool available control system environment example OPC protocol enumerate gather information access system interface native protocol allow collection enumeration attach communicate server device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  leverage AutoRun functionality script execute malicious code device configure enable AutoRun functionality legacy operating system susceptible abuse feature run malicious code store form removeable medium ie USB Disk Images iso commonly AutoRun AutoPlay disabled operating system configuration mitigate technique device configure enable AutoRun AutoPlay   execute code device mount removable medium device physical virtual mean especially relevant virtual machine environment disk image dynamically map guest system hypervisor   example include gain access hypervisor management interface modify virtual machine hardware configuration deploy iso image malicious AutoRun script cause virtual machine automatically execute code contain disk image enable execution malicious code virtual machine need prior remote access system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  block command message reach intended target prevent command execution ot network command message send provide instruction control system device blocked command message inhibit response function correct disruption unsafe condition citation Bonnie Zhu Anthony Joseph Shankar Sastry 2011   citation Electricity Information Sharing Analysis Center SANS Industrial Control Systems March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  block prevent reporting message reach intended target control system report message contain telemetry datum eg o value pertain current state equipment industrial process block reporting message   potentially hide action operator block report message control system manage physical process contribute system impact cause inhibition response function control system able respond proper timely manner event dangerous fault corresponding reporting message block citation Bonnie Zhu Anthony Joseph Shankar Sastry 2011   citation Electricity Information Sharing Analysis Center SANS Industrial Control Systems March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  block access serial COM prevent instruction configuration reach target device Serial Communication port COM allow communication control system device device receive command configuration message serial com device use serial com send command report message block device serial com block command message block reporting message serial ethernet converter connect serial com facilitate communication serial Ethernet device approach block serial com create hold open TCP session Ethernet converter serial ethernet converter port open facilitate multiple communication example serial com available 1 2 3 converter listen correspond port 20001 20002 20003 TCP ip connection open port hold open port unavailable use party way achieve initiate TCP session serial Ethernet converter 10001 Telnet serial port 1 following command telnet 10001 20001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  repetitively successively change O point value perform action Brute Force o achieve change range o point value single point value repeatedly manipulate process function goal information target environment influence option choose case brute force range point value   able achieve impact target specific point case single point target   able generate instability process function associate particular point   use Brute Force o cause failure industrial process failure result wear equipment damage downstream equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  modify software device credential prevent operator responder access depend device modification addition password prevent device configuration action accomplish require factory reset replacement hardware credential build feature provide device vendor means restrict access management interfaceswith access valid hardcode credential change credential prevent future authorize device access Change Credential especially damaging pair technique Modify Program Data Destruction Modify Controller Tasking case device configuration destroy include malicious action process environment remove normal device configuration action additionally recovery device original configuration difficult depend feature provide device case password remove onsite require device send vendor additional recovery step chain incident occur Germany lock operator building automation system BAS controller enable previously unset BCU key  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  change operate mode controller gain additional access engineering function Program Download    programmable controller typically mode operation control state user program control access controller API operating mode physically select key switch face controller select call controller API operating mode mechanism select vary vendor product line commonly implement operating mode describe   program mode enable change device program allow program upload download device engineering workstation PLCs logic halt output force citation NA October 2017   run execution device program occur mode input output value point tag element etc monitor accord program logic     disabled mode     citation NA October 2017     remote Allows remote change PLCs operation mode      stop PLC program stop mode output force     Reset Conditions PLC reset original state warm reset retain memory cold reset reset o data register     test Monitor mode similar run mode o process mode allow monitoring force set reset generally tune debugging system monitor mode trial initialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  utilize command line interface CLIs interact system execute command cli provide mean interact computer system common feature type platform device control system environment citation Enterprise ATTCK January 2018   use cli install run new software include malicious tool instal course operation cli typically access locally expose service SSH Telnet RDP   command execute CLI execute current permission level process run terminal emulator command specify change permission context controller CLI interface management purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  communicate commonly port bypass firewall network detection system blend normal network activity avoid detailed inspection use protocol associate port completely different protocol use commonly open port example provide    TCP80 HTTP   TCP443 HTTPS   TCP UDP53 DNS   tcp1024 4999 OPC XP Win2k3   TCP49152 65535 OPC Vista later   TCP23 TELNET   udp161 SNMP   TCP502 MODBUS   tcp102 S7comm ISO TSAP   TCP20000 DNP3   tcp44818 Ethernet IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use connection proxy direct network traffic system act intermediary network communication definition proxy expand encompass trust relationship network peer peer mesh trust connection network consist host system regularly communicate network single organization multiple organization trust relationship use type relationship manage command control communication reduce number simultaneous outbound network connection provide resiliency face connection loss ride exist trust communication path victim avoid suspicion citation Enterprise ATTCK January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cause damage destruction property infrastructure equipment surround environment attack control system technique result device operational equipment breakdown represent tangential damage technique attack depend severity physical damage disruption cause control process system technique result operation result   cause damage property directly indirectly motivate seek cause impact form German Federal Office Information Security BSI report targeted attack steel mill incident affect business section 2014 Security Report    target attack affect industrial operation result breakdown control system component entire installation result breakdown massive impact damage result uncontrolled shutdown blast furnace polish student remote controller device interface Lodz city tram system Poland     remote student able capture replay legitimate tram signal result damage impact tram people surround property reportedly tram derail force emergency stop   command issue student result tram collision cause harm board environment outside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  perform datum destruction course operation   drop create malware tool non native file target system accomplish potentially leave trace malicious activity non native file datum remove course intrusion maintain small footprint standard post intrusion cleanup process citation enterprise ATTCK January 2018data destruction render operator interface unable respond disrupt response function occur expect   destroy data backup vital recovery incident standard file deletion command available operating system device interface perform cleanup   use tool example Windows Sysinternals SDelete Active Killdisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  target collect datum information repository include sensitive datum specification schematic diagram control system layout device process example information repository include reference database process environment database corporate network contain information icscitation Cybersecurity Infrastructure Security Agency March 2018information collect system provide well understanding operational environment vendor process procedure ICSIn campaign 2011 2013 ONG organization chinese state sponsor actor search document repository specific information system manual remote terminal unit RTU site personnel list document include string SCAD user credential remote dial access information citation CISA AA21 201A Pipeline Intrusion July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  target collect datum local system source file system configuration file local database include sensitive datum specification schematic diagram control system layout device process     technique interact file system gather information   use   local system</t>
   </si>
   <si>
     <t xml:space="preserve">  leverage manufacturer supplier set default credential control system device default credential administrative permission necessary initial configuration device general good practice change password account soon possible manufacturer device password username change default credential normally document instruction manual package device publish online official mean publish online unofficial mean   leverage default credential properly modify disabled</t>
   </si>
   <si>
-    <t xml:space="preserve">  cause denial control temporarily prevent operator engineer interact process control   attempt deny process control access cause temporary loss communication control device prevent operator adjustment process control affected process operate period control loss necessarily desire state   citation michael j. assante robert m. lee 2017 dallas siren incident operator unable disable false alarm office emergency management headquarters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perform denial service do attack disrupt expect device functionality example do attack include overwhelm target device high volume request short time period send target device request know handle disrupt device state temporarily render unresponsive possibly last reboot occur place state device unable send receive request perform expect response function reaction event environment ics device particularly sensitive dos event unresponsive reaction simple ping sweep   attempt execute permanent denial service pdo certain device case brickerbot malware citation ics cert april 2017   exploit software vulnerability cause denial service take advantage programming error program service operating system software kernel execute -controlled code vulnerability exist software cause denial service condition   prior knowledge industrial protocol control device environment remote system information discovery](https://attack.mitre.org technique t0888 example remotely cause device restart shutdown](https://attack.mitre.org technique t0816 exploit vulnerability induce uncontrolled resource consumption citation ics cert august 2018   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  cause denial view attempt disrupt prevent operator oversight status ics environment manifest temporary communication failure device control source interface recover available interference cease   citation michael j. assante robert m. lee    attempt deny operator visibility prevent receive status report message deny view temporarily block prevent operator notice change state anomalous behavior environment datum process operational function unintended adversarial manner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  gather information plcs controller current operating mode operating mode dictate change maintenance function manipulate control key switch plc e.g.   run prog program remote knowledge state valuable determine able reprogram plc operating mode mechanism select vary vendor product line commonly implement operating mode describe   program mode enable change device program allow program upload download device engineering workstation plcs logic halt output force citation n.a october 2017   run execution device program occur mode input output value point tag element etc monitor accord program logic.[program upload](https://attack.mitre.org technique t0845 program download](https://attack.mitre.org technique t0843 disabled mode     citation n.a october 2017     remote allow remote change plcs operation mode      stop plc program stop mode output force     reset condition plc reset original state warm reset retain memory cold reset reset o data register     test monitor mode similar run mode o process mode allow monitoring force set reset generally tune debugging system monitor mode trial initialization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  forcibly restart shutdown device ics environment disrupt potentially negatively impact physical process method device restart shutdown exist device build standard functionality functionality execute interactive device web interface cli network protocol commands.unexpecte restart shutdown control system device prevent expect response function happen critical states.a device restart sign malicious device modification update require shutdown effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  gain access system drive compromise user visit website regular browse session technique user web browser target exploit simply visit compromise website   target specific community trust party supplier industry specific group visit target website kind target attack rely common interest know strategic web compromise water hole attack national cyber awareness system ncas issue technical alert ta russian government cyber activity target critical infrastructure sector citation cybersecurity infrastructure security agency march 2018 analysis dhs fbi note distinct category victim dragonfly campaign western energy sector staging intended target target secure network staging target include trust party supplier related peripheral organization initial access intended target watering hole attack target process control ic critical infrastructure relate trade publication informational website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt leverage application program interface apis communication control software hardware specific functionality cod apis call software engage specific function device software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  leverage weakness exploit internet face software initial access industrial network internet face software user application underlie network implementation asset operating system weak defense etc target technique intentionally expose purpose remote management visibility seek target public face application provide direct access ics environment ability ics network publicly expose application find online tool scan internet open port service version number expose application provide ability target specific know vulnerability expose control protocol remote access port find commonly port interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  exploit software vulnerability advantage programming error program service operating system software kernel evade detection vulnerability exist software disable circumvent security feature    prior knowledge remote system information discovery](https://attack.mitre.org technique t0888 security feature implement control device device security feature likely target directly exploitation example firmware ram rom consistency check control device target enable installation malicious system firmware](https://attack.mitre.org technique t0857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  exploit software vulnerability attempt elevate privilege exploitation software vulnerability occur take advantage programming error program service operating system software kernel execute -controlled code security construct permission level hinder access information use certain technique likely need perform privilege escalation include use software exploitation circumvent restriction   initially gain access system operate lower privileged process prevent access certain resource system vulnerability exist usually operating system component software commonly run high permission exploit gain high level access system enable unprivileged user level permission system root permission depend component vulnerable necessary step compromise endpoint system properly configure limit privilege escalation method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  exploit software vulnerability advantage programming error program service operating system software kernel enable remote service abuse common goal post compromise exploitation remote service initial access lateral movement ics environment enable access target system citation enterprise att&amp;ck)ics asset owner operator affect ransomware disruptive malware masquerade ransomware migrating enterprise ic environment wannacry notpetya badrabbit case self propagate wormable malware initially infect network exploit particularly smbv1 target ms17 010 vulnerability spread industrial network produce significant impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  leverage external remote service point initial access network service allow user connect internal network resource external location example vpns citrix access mechanism remote service gateway manage connection credential authentication service citation daniel oakley travis smith tripwire)external remote service allow administration control system outside system vendor internal engineering group access external remote service control system network corporate network case access enable directly internet remote access enable ease maintenance control system remote area compromise remote access solution liability   use service gain access execute attack control system network access valid account requirement look entry point control system network   begin search exist point point vpn implementation trust party network remote support employee connection split tunneling enable citation electricity information sharing analysis center sans industrial control system march 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt gain access machine graphical user interface gui enhance execution capability access gui allow user interact computer visual manner cli gui allow user cursor click interface object mouse keyboard main input device oppose keyboard.if physical access option access possible protocol vnc linux base unix base operating system rdp window operating system   use access execute program application target machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  leverage credential hardcode software firmware gain unauthorized interactive user session asset example credential hardcode asset include username password cryptographic key certificate api tokensunlike default credentials](https://attack.mitre.org technique t0812 credential build system way change asset owner infeasible change impact cause control system operation credential reuse product line device model publish know owner operator asset   utilize hardcode credential control system environment provide reliable access tool interact industrial asset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  hook application programming interface api function process redirect call execution privilege escalation mean windows process leverage api function perform task require reusable system resource window api function typically store dynamic link library dll export function citation enterprise att&amp;ck)one type hooking see ics involve redirect call function import address table iat hooking iat hooking use modification process iat pointer import api function store citation nicolas falliere liam o murchu eric chien february 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  seek capture process value relate input output plc scan cycle plc read status input store image table citation nanjundaiah vaidyanath image table plcs internal storage location value input output scan store execute user program plc solve entire logic program update output image table content output image table write correspond output point o modules.the input output image table describe o image plc image user program instead directly interact physical o. citation spenneberg ralf 2016   collect o image state plc utilize device native api](https://attack.mitre.org technique t0834 access memory region directly collection plcs o state replace value inform future stage attack</t>
+    <t xml:space="preserve">  cause denial control temporarily prevent operator engineer interact process control   attempt deny process control access cause temporary loss communication control device prevent operator adjustment process control affected process operate period control loss necessarily desire state   citation Michael J Assante Robert M Lee 2017 Dallas Siren incident operator unable disable false alarm Office Emergency Management headquarters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  perform denial Service dos attack disrupt expect device functionality example dos attack include overwhelm target device high volume request short time period send target device request know handle disrupt device state temporarily render unresponsive possibly last reboot occur place state device unable send receive request perform expect response function reaction event environment ICS device particularly sensitive dos event unresponsive reaction simple ping sweep   attempt execute permanent denial Service PDoS certain device case BrickerBot malware citation ICS CERT April 2017   exploit software vulnerability cause denial service take advantage programming error program service operating system software kernel execute controlled code vulnerability exist software cause denial service condition   prior knowledge industrial protocol control device environment example remotely cause   exploit vulnerability induce uncontrolled resource consumption citation ICS CERT August 2018   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cause denial view attempt disrupt prevent operator oversight status ICS environment manifest temporary communication failure device control source interface recover available interference cease   citation Michael J Assante Robert M Lee    attempt deny operator visibility prevent receive status report message deny view temporarily block prevent operator notice change state anomalous behavior environment datum process operational function unintended adversarial manner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  gather information PLCs controller current operating mode operating mode dictate change maintenance function manipulate control key switch PLC eg   run prog program remote knowledge state valuable determine able reprogram PLC operating mode mechanism select vary vendor product line commonly implement operating mode describe   program mode enable change device program allow program upload download device engineering workstation PLCs logic halt output force citation NA October 2017   run execution device program occur mode input output value point tag element etc monitor accord program logic   disabled mode     citation NA October 2017     remote Allows remote change PLCs operation mode      stop PLC program stop mode output force     Reset Conditions PLC reset original state warm reset retain memory cold reset reset o data register     test Monitor mode similar run mode o process mode allow monitoring force set reset generally tune debugging system monitor mode trial initialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  forcibly restart shutdown device ICS environment disrupt potentially negatively impact physical process method device restart shutdown exist device build standard functionality functionality execute interactive device web interface cli network protocol command unexpected restart shutdown control system device prevent expect response function happen critical state device restart sign malicious device modification update require shutdown effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  gain access system drive compromise user visit website regular browse session technique user web browser target exploit simply visit compromise website   target specific community trust party supplier industry specific group visit target website kind target attack rely common interest know strategic web compromise water hole attack National Cyber Awareness System NCAS issue Technical Alert TA russian government cyber activity target critical infrastructure sector citation Cybersecurity Infrastructure Security Agency March 2018 analysis DHS FBI note distinct category victim Dragonfly campaign western energy sector staging intended target target secure network staging target include trust party supplier related peripheral organization initial access intended target watering hole attack target process control ICS critical infrastructure relate trade publication informational website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt leverage Application Program Interfaces APIs communication control software hardware specific functionality cod api call software engage specific function device software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  leverage weakness exploit internet face software initial access industrial network internet face software user application underlie network implementation asset operating system weak defense etc target technique intentionally expose purpose remote management visibility seek target public face application provide direct access ICS environment ability ICS network publicly expose application find online tool scan internet open port service version number expose application provide ability target specific know vulnerability expose control protocol remote access port find commonly Port interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  exploit software vulnerability advantage programming error program service operating system software kernel evade detection vulnerability exist software disable circumvent security feature    prior knowledge   security feature implement control device device security feature likely target directly exploitation example firmware RAM rom consistency check control device target enable installation malicious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  exploit software vulnerability attempt elevate privilege exploitation software vulnerability occur take advantage programming error program service operating system software kernel execute controlled code security construct permission level hinder access information use certain technique likely need perform privilege escalation include use software exploitation circumvent restriction   initially gain access system operate lower privileged process prevent access certain resource system vulnerability exist usually operating system component software commonly run high permission exploit gain high level access system enable unprivileged user level permission SYSTEM root permission depend component vulnerable necessary step compromise endpoint system properly configure limit privilege escalation method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  exploit software vulnerability advantage programming error program service operating system software kernel enable remote service abuse common goal post compromise exploitation remote service initial access lateral movement ICS environment enable access target system citation enterprise attckics asset owner operator affect ransomware disruptive malware masquerade ransomware migrating enterprise ICS environment WannaCry NotPetya BadRabbit case self propagate wormable malware initially infect network exploit particularly smbv1 target MS17 010 vulnerability spread industrial network produce significant impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  leverage external remote service point initial access network service allow user connect internal network resource external location example vpn Citrix access mechanism remote service gateway manage connection credential authentication service citation Daniel Oakley Travis Smith TripwireExternal remote service allow administration control system outside system vendor internal engineering group access external remote service control system network corporate network case access enable directly internet remote access enable ease maintenance control system remote area compromise remote access solution liability   use service gain access execute attack control system network access valid account requirement look entry point control system network   begin search exist point point vpn implementation trust party network remote support employee connection split tunneling enable citation Electricity Information Sharing Analysis Center SANS Industrial Control Systems March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt gain access machine Graphical User Interface GUI enhance execution capability access GUI allow user interact computer visual manner cli GUI allow user cursor click interface object mouse keyboard main input device oppose keyboard physical access option access possible protocol VNC Linux base Unix base operating system RDP Windows operating system   use access execute program application target machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  leverage credential hardcode software firmware gain unauthorized interactive user session asset example credential hardcode asset include Username Passwords cryptographic key Certificates api tokensunlike credential build system way change asset owner infeasible change impact cause control system operation credential reuse product line device model publish know owner operator asset   utilize hardcode credential control system environment provide reliable access tool interact industrial asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  hook application programming interface API function process redirect call execution privilege escalation mean Windows process leverage api function perform task require reusable system resource Windows api function typically store dynamic link library dll export function citation enterprise attckone type hooking see ICS involve redirect call function import address table IAT hooking IAT hooking use modification process IAT pointer import api function store citation Nicolas Falliere Liam O Murchu Eric Chien February 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  seek capture process value relate input output PLC scan cycle PLC read status input store image table citation Nanjundaiah Vaidyanath image table PLCs internal storage location value input output scan store execute user program PLC solve entire logic program update output image table content output image table write correspond output point O Modules Input Output Image table describe o image PLC image user program instead directly interact physical O citation Spenneberg Ralf 2016   collect o image state PLC utilize device   access memory region directly collection PLCs o state replace value inform future stage attack</t>
   </si>
   <si>
     <t xml:space="preserve">  attempt remove indicator presence system effort cover track case   feel detection imminent try overwrite delete cover change device</t>
   </si>
   <si>
-    <t xml:space="preserve">  gain access industrial environment system expose directly internet remote access external remote services](https://attack.mitre.org technique t0822 internet accessible device expose internet unintentionally intentionally adequate protection allow directly control system network access device accomplish use exploit represent exploit public face application](https://attack.mitre.org technique t0819 technique leverage build function remote access protect utilize minimal legacy protection target   service discoverable use online scanning tool case bowman dam incident leveraged access dam control network cellular modem access device protect password authentication application vulnerable brute forcing    trend micro manufacturing deception operation detect leverage direct internet access ics environment exposure operational protocol siemen s7 omron fin ethernet ip addition misconfigured vnc access citation stephen hilt federico maggi charles perine lord remorin martin rsler rainer vosseler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  transfer tool file system stage tool file course operation citation enterprise att&amp;ck copying file perform laterally internal victim system support lateral movement remote execution inherent file share protocol file share smb connected network share citation enterprise att&amp;ck)in control system environment malware use smb file share protocol laterally industrial network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt disrupt essential component system prevent owner operator deliver product service   citation michael j. assante robert m. lee    leverage malware delete encrypt critical datum hmis workstation databases.in 2021 colonial pipeline ransomware incident pipeline operation temporally halt 7th fully restart 12th</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  seek achieve sustained loss control runaway condition operator issue command malicious interference subside   citation michael j. assante robert m. lee german federal office information security bsi report targeted attack steel mill 2014 security report target attack affect industrial operation result breakdown control system component entire installation result breakdown massive impact result damage unsafe condition uncontrolled shutdown blast furnace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  cause loss productivity revenue disruption damage availability integrity control system operation device relate process technique manifest direct effect ics target attack tangentially target attack non segregated environment case operation service bring halt loss productivity eventually present impact end user consumer product service disrupt supply chain result supply shortage increase price consequence ransomware attack australian beverage company result shutdown manufacture site include precautionary halt protect key system citation paganini pierluigi june 2020 company announce potential temporary shortage product follow attack citation paganini pierluigi june 2020   2021 colonial pipeline ransomware incident pipeline unable transport approximately 2.5 million barrel fuel day east coast  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  compromise protective system function design prevent effect fault abnormal condition result equipment damage prolonged process disruption hazard personnel fault abnormal condition process control happen quickly human operator react speed critical correct condition limit impact loss control property damage   target disable protective system function prerequisite subsequent attack execution allow future fault abnormal condition unchecked detection loss protection operator result shutdown process strict policy protection system cause loss productivity revenue meet technical goal seek cause process disruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  compromise safety system function design maintain safe operation process unacceptable dangerous condition occur safety system compose element control system sole purpose ensure process fail predetermine safe manner unsafe condition process control happen quickly human operator react speed critical correct condition limit impact loss control property damage   target disable safety system function prerequisite subsequent attack execution allow future unsafe conditional unchecked detection loss safety operator result shutdown process strict policy safety system cause loss productivity revenue meet technical goal seek cause process disruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  cause sustained permanent loss view ics equipment require local hand operator intervention instance restart manual operation cause sustained reporting visibility loss   effectively hide present state operation loss view occur affect physical process   citation michael j. assante robert m. lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  manipulate o image plcs mean prevent function expect method o image manipulation include override o table direct memory manipulation override function test plc program citation dr kelvin t. erickson december 2010 scan cycle plc read status input store image table citation nanjundaiah vaidyanath image table plcs internal storage location value input output scan store execute user program plc solve entire logic program update output image table content output image table write correspond output point o module unique characteristic plcs ability override status physical discrete input override logic drive physical output coil force output desire status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  manipulate physical process control industrial environment method manipulate control include change set point value tag parameter   manipulate control system device possibly leverage communicate command physical control process duration manipulation temporary long sustain depend operator detection    method manipulation control include man middle   spoof command message change setpoint   polish student remote controller device interface lodz city tram system poland     remote student able capture replay legitimate tram signal consequence tram derail people injure result emergency stop   track control command issue result tram collision risk board nearby area impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt manipulate information report operator controller manipulation short term sustain time process different state report   citation michael j. assante robert m. lee   operator fool harmful system loss view situation manipulated view system operator issue inappropriate control sequence introduce fault catastrophic failure system business analysis system provide inaccurate datum lead bad management decision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use masquerade disguise malicious application executable file avoid operator engineer suspicion possible disguise masquerade file include commonly find program expect vendor executable configuration file commonplace application naming convention impersonate expect vendor relevant file application operator engineer notice presence underlie malicious content possibly end run masquerade legitimate function application file commonly find window system engineering workstation impersonate simple rename file effectively disguise ics environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  modify alarm setting prevent alert inform operator presence prevent response dangerous unintended scenario report message standard datum acquisition control system report message way transmit system state information acknowledgement specific action occur message provide vital information management physical process operator engineer administrator aware state system device physical process able change reporting setting certain event prevent report type modification prevent operator device perform action system safe state critical reporting message trigger action impact](https://attack.mitre.org tactic ta0105 occur ics environment   use alarm suppression](https://attack.mitre.org technique t0878 contend multiple alarm and/or alarm propagation achieve specific goal evade detection prevent intend response occur citation jos wetzel marina krotofil 2019   method suppression rely modification alarm setting modifying memory code fix value tamper assembly level instruction code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  modify tasking controller allow execution program allow manipulate execution flow behavior controller accord 61131 3 association task program organization unit pou define task association   modify association create new one manipulate execution flow controller modification controller tasking accomplish program download addition type program modification online edit program append.task property interval frequency priority meet requirement program execution controller vendor implement task implicit pre define property allow property formulate explicitly associate program task high priority execute associated program frequently instance ensure cyclic execution program siemen controller add program task organization block 1 ob1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  modify parameter instruct industrial control system device device operate program dictate perform action base parameter parameter determine extent action perform specify additional option example program control system device dictate motor process parameter define total number second run motor        potentially modify parameter produce outcome outside intend operator modify system process critical parameter   cause impact](https://attack.mitre.org tactic ta0105 equipment and/or control process modify parameter turn dangerous bound unexpected value typical operation example specify process run time dictate unusually high low invalid value parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  modify add program controller affect interact physical process peripheral device host network modification controller program accomplish program download addition type program modification online edit program append program modification encompass addition modification instruction logic contain program organization unit pou    similar programming element find controller include example add new function controller modify logic exist function make new call function program allow interact directly native api controller advantage obscure feature vulnerability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  install malicious vulnerable firmware modular hardware device control system device contain modular hardware device device set firmware separate firmware main control system equipment    technique similar system firmware](https://attack.mitre.org technique t0857 conduct system component capability level integrity checking result device image malicious device firmware provide persistent access remain device citation daniel peck   dale peterson january 2009   easy point access ethernet card cpu ram operating system   attack likely exploit computer ethernet card exploitation ethernet card computer enable accomplish additional attack following citation daniel peck   dale peterson january 2009   delay attack   stage attack advance choose launch particularly damaging time   brick ethernet card malicious firmware program result ethernet card failure require factory return   random attack failure   load malicious firmware multiple field device execution attack time occur generate pseudo random number generator    field device worm   choose identify field device model end goal perform device wide compromise   attack card field device important module field device ethernet card accessible malware compromise ethernet card provide direct route compromise module cpu module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  gather information physical process state information gain information process trigger malicious action source process state information vary opc tag historian datum specific plc block information network traffic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  directly interact native os application programming interface api access system function native apis provide control mean call low level os service kernel involve hardware device memory process   native apis leverage os system boot system component initialize carry task request routine operation functionality provide native apis expose user mode application interface library example function memcpy direct operation memory register modify user system memory space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perform network connection enumeration discover information device communication pattern   inspect state network connection tool netstat conjunction system firmware](https://attack.mitre.org technique t0857 determine role certain device network     use network sniffing](https://attack.mitre.org technique t0842 watch network traffic detail source destination protocol content</t>
-  </si>
-  <si>
-    <t>network sniff practice network interface computer system monitor capture information citation enterprise att&amp;ck january 2018 regardless specified destination information   attempt sniff traffic gain information target information vary level importance relatively unimportant information general communication machine   relatively important information login information user credential send unencrypted protocol telnet capture obtain network packet analysis addition arp domain service dns poisoning capture credential website proxy internal system redirect traffic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  collect point tag value gain comprehensive understanding process environment point value input memory location output process specific variable citation dennis l. sloatman september 2016 tag identifier give point operator convenience collect tag provide valuable context environmental point enable map input output value control process understand point collect inform process value track course operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perform program download transfer user program controller variation program download online edit program append allow controller continue run transfer reconfiguration process interruption process control start program download i.e. download controller need stop state negative consequence physical process especially controller able fulfill time sensitive action   choose avoid download favor online edit program append avoid disrupt physical process   need use technique detect operate mode change operate mode sure controller proper mode accept program download.the granularity control transfer user program part dictate management protocol e.g. s7commplus tristation underlie controller api program download high level term suite vendor specific api call configure controller user program memory space   modify controller tasking](https://attack.mitre.org technique t0821 modify program](https://attack.mitre.org technique t0889 represent configuration change transfer controller program download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt upload program plc gather information industrial process upload program allow acquire study underlying logic method program upload include vendor software enable user upload read program run plc software upload target program workstation jump box interfacing device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt infect project file malicious code project file consist object program organization unit variable tag documentation configuration need plc program function   build function engineering software   able download infected program plc operate environment enable execution](https://attack.mitre.org tactic ta0104 persistence](https://attack.mitre.org tactic ta0110 technique    export code project file condition execute specific interval citation nicolas falliere liam o murchu eric chien february 2011 malicious program allow control aspect process enable plc project file download plc workstation device disconnect infected project file execute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  leverage remote service asset network segment service allow operator interact system remotely network example rdp smb ssh similar mechanism citation blake johnson dan caban marina krotofil dan scali nathan brubaker christopher glyer december 2017    remote service support remote access datum transmission authentication resolution remote function remote service necessary allow operator administrator configure system network engineering management workstation   use technique access device dual homed citation blake johnson dan caban marina krotofil dan scali nathan brubaker christopher glyer december 2017 multiple network segment program download](https://attack.mitre.org technique t0843 execute attack control device directly valid accounts](https://attack.mitre.org technique t0859).specific remote service rdp vnc precursor enable graphical user interface](https://attack.mitre.org technique t0823 execution device hmis engineering workstation software.base incident datum cisa fbi assess chinese state sponsor actor compromise authorize remote access channel include system design transfer datum and/or allow access corporate ics network   citation cisa aa21 201a pipeline intrusion july 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt listing system ip address hostname logical identifier network subsequent lateral movement discovery technique functionality exist tool enable utility available operating system vendor software citation enterprise att&amp;ck january 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt detailed information remote system peripheral model role configuration   use information remote system information discovery aid target shape follow behavior example system operational role model information dictate relevant target operational objective addition system configuration scope subsequent technique usage request system information typically implement automation management protocol automatically request vendor software normal operation information tailor management action program download system module firmware   leverage information issue call directly system api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  system separate enterprise network copy malware removable medium insert control system environment   rely unknowe trust party supplier contractor access privilege introduce removable medium technique enable initial access target device connect untrusted network physically accessible      operator german nuclear power plant gundremmingen discover malware facility computer connect internet    malware include conficker w32.ramnit find eighteen removable disk drive facility citation christoph steitz eric auchard april 2016       plant check infection clean 1,000 computer   eset researcher comment internet disconnection guarantee system safety infection payload execution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  setup rogue master leverage control server function communicate outstation rogue master send legitimate control message control system device affect process unintended way disrupt network communication capture receive network traffic mean actual master impersonate master allow avoid detection case 2017 dallas siren incident rogue master send command message 156 distribute siren city single rogue transmitter strong signal distribute repeater  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  deploy rootkit hide presence program file network connection service driver system component rootkit program hide existence malware intercept modify operating system api call supply system information rootkit rootkit enable functionality reside user kernel level operating system low citation enterprise att&amp;ck january 2018    firmware rootkit affect operating system yield nearly control system firmware rootkit normally develop main processing board develop o attach asset compromise firmware allow modification process variable function module engage result command disregarded false information feed main device tamper device process   inhibit expect response function possibly enable impact](https://attack.mitre.org tactic ta0105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  attempt perform screen capture device control system environment screenshot take workstation hmis device display environment relevant process device reporting alarm related datum device display reveal information ics process layout control related schematic particular hmi provide lot important industrial process information citation ics cert october 2017 analysis screen capture provide understanding intended operation interaction critical device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use scripting language execute arbitrary code form pre write script form user supply code interpreter scripting language program language differ compile language scripting language use interpreter instead compiler interpreter read compile source code execute oppose compiler compile line code executable file scripting allow software developer run code system interpreter exist way distribute package instead precompile executable different system scripting language python interpreter ship default linux distribution addition useful tool developer administrator script language interpreter abuse execute code target environment nature scripting language allow weaponize code deploy target easily leave open possibility fly scripting perform task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  stop disable service system render service unavailable legitimate user stop critical service inhibit stop response incident aid overall objective cause damage environment citation enterprise att&amp;ck   service allow modification datum store run   stop service conduct datum destruction citation enterprise att&amp;ck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  use spearphishe attachment variant spearphishing form social engineering attack specific target spearphishing attachment different form spearphishe employ malware attach email form spearphishing electronically deliver target specific individual company industry scenario attach file spearphishing email usually rely user execution](https://attack.mitre.org technique t0863 gain execution access citation enterprise att&amp;ck october 2019 chinese spearphishe campaign run december 9 2011 february 29 2012 target ong organization employee email construct high level sophistication convince employee open malicious file attachment citation cisa aa21 201a pipeline intrusion july 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  spoof report message control system environment evasion impair process control control system report message contain telemetry datum e.g. o value pertain current state equipment industrial process report message important monitor normal operation system identify important event deviation expect value ability spoof report message impact control system way   spoof report message state process operate normally form evasion spoof report message defender operator think error occur distract actual source problem citation bonnie zhu anthony joseph shankar sastry 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  establish command control capability commonly application layer protocol http(s opc rdp telnet dnp3 modbus protocol disguise action benign network traffic standard protocol see associate port case non standard port    use protocol reach network command control case infect device network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perform supply chain compromise gain control system environment access mean infected product software workflow supply chain compromise manipulation product device software delivery mechanism receipt end consumer compromise product mechanism goal datum system compromise infect product introduce target environment supply chain compromise occur stage supply chain manipulation development tool environment manipulation develop product tool distribution mechanism involve compromise replacement legitimate software patch party vendor website target supply chain compromise attempt infiltrate environment specific audience control system environment asset ot network possible supply chain compromise affect environment enable access ot environment    counterfeit device introduce global supply chain pose safety cyber risk asset owner operator device meet safety engineering manufacturing requirement regulatory body feature tag indicate conformance industry standard lack adherence standard overall less quality counterfeit product pose safety operational risk   yokogawa identify instance customer receive counterfeit differential pressure transmitter yokogawa logo counterfeit transmitter nearly indistinguishable semblance functionality interface mimic genuine product   f secure lab analyze approach compromise victim system havex citation daavid hentunen antti tikkanen june 2014 plant trojanize software installer available legitimate ic scada vendor website download software infect host computer remote access trojan rat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  bypass process and/or signature base defense proxying execution malicious content sign trust binary binary technique microsoft sign file indicate download microsoft native operating system   binary sign trust digital certificate typically execute window system protect digital signature validation microsoft sign binary default window installation proxy execution file command similarly linux system   abuse trust binary split proxy execution malicious command   abuse application binary instal system proxy execution malicious code domain specific command command target local resource device networked device environment define apis execution api](https://attack.mitre.org technique t0871 application specific programming language e.g. microscada scil application binary sign developer generally trust operator analyst monitoring tool accustom environment application develop and/or directly provide device vendor enable configuration management operation device alternative   seek target trust application binary execute send command development custom malware example   target scada server binary exist ability send command substation device iec 104 command message proxy execution require development custom tool hook application binary execution</t>
-  </si>
-  <si>
-    <t>system firmware modern asset design update feature old device firmware factory instal require special reprograming equipment available firmware update feature enable vendor remotely patch bug perform upgrade device firmware update delegate user software update package possible perform task network   exploit firmware update feature accessible device upload malicious date firmware malicious modification device firmware provide root access device give firmware low programming abstraction layer citation basnight zachry et al</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  steal operational information production environment direct mission outcome personal gain inform future operation information include design document schedule rotational datum similar artifact provide insight operation     bowman dam incident probe system operational datum  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  target device transient ics network external network normally transient asset bring environment authorize personnel remain environment permanent basis   transient asset commonly need support management function common system remotely manage asset feasible external connection remote access exist 3rd party contractor vendor access require   advantage transient asset different way instance   target transient asset connect external network leverage trust access environment launch attack advantage instal application library legitimate end user interact control system device transient asset case deploy secure configuration lead weakness allow propagate malicious executable code e.g. transient asset infect malware connect ics environment malware propagate system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  send unauthorized command message instruct control system asset perform action outside intended functionality logical precondition trigger expect function command message ics network direct instruction control system device   send unauthorized command message control system instruct control system device perform action outside normal bound device action potentially instruct control system device perform action cause impact](https://attack.mitre.org tactic ta0105 citation bonnie zhu anthony joseph shankar sastry 2011)in dallas siren incident able send command message activate tornado alarm system city impending tornado disaster  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  rely target organization user interaction execution malicious code user interaction consist instal application open email attachment grant high permission document   embe malicious code visual basic code file microsoft word excel document software installer   execution code require user enable scripting write access document embed code noticeable user especially case trojanize software citation daavid hentunen antti tikkanen june 2014 chinese spearphishe campaign run december 9 2011 february 29 2012 deliver malware spearphishing attachment require user action achieve execution citation cisa aa21 201a pipeline intrusion july 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  steal credential specific user service account credential access technique case default credential control system device publicly available compromise credential bypass access control place resource host network persistent access remote system compromise default credential grant increase privilege specific system device access restricted area network   choose use malware tool conjunction legitimate access credential provide hard detect presence control device send legitimate command unintended way   create account predefine account name password provide mean backup access persistence   overlap credential permission network system concern   able pivot account system reach high level access i.e. domain enterprise administrator   possibly enterprise operational technology environment   able leverage valid credential system gain access system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perform wireless compromise method gain communication unauthorized access wireless network access wireless network gain compromise wireless device citation alexander bolshev gleb cherbov july 2014    utilize radio wireless communication device frequency wireless network wireless compromise initial access vector remote distance polish student modify tv remote controller gain access control lodz city tram system poland    remote controller device allow student interface trams network modify track setting override operator control   accomplish align controller frequency amplitude ir control protocol signal   controller enable initial access network allow capture replay tram signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  seek capture radio frequency rf communication remote control reporting distribute environment rf communication frequency vary 3 khz 300 ghz commonly 300 mhz 6 ghz citation candell r. hany m. lee k. b. liu y. quimby j. remley k. april 2018   wavelength frequency signal affect signal propagate open air obstacle e.g. wall tree type radio require capture characteristic standardize protocol hardware effect signal capture example wireless protocol find cyber physical environment wirelesshart zigbee wia fa 700 mhz public safety spectrum   capture rf communication specialized hardware software define radio sdr handheld radio computer radio demodulator tune communication frequency   information transmit wireless medium capture transit sniff device intended destination technique particularly useful communication encrypt citation gallagher s. april 2017 2017 dallas siren incident suspect likely capture wireless command message broadcast 700 mhz frequency regular test system message later replay trigger alarm system citation gallagher s. april 2017</t>
+    <t xml:space="preserve">  gain access industrial environment system expose directly internet remote access internet Accessible Devices expose internet unintentionally intentionally adequate protection allow directly control system network access device accomplish use exploit represent   technique leverage build function remote access protect utilize minimal legacy protection target   service discoverable use online scanning tool case Bowman dam incident leveraged access dam control network cellular modem access device protect password authentication application vulnerable brute forcing    Trend Micros manufacturing deception operation detect leverage direct internet access ICS environment exposure operational protocol Siemens S7 Omron FINS EtherNet IP addition misconfigured VNC access citation Stephen Hilt Federico Maggi Charles Perine Lord Remorin Martin Rsler Rainer Vosseler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  transfer tool file system stage tool file course operation citation Enterprise ATTCK copying file perform laterally internal victim system support Lateral Movement remote Execution inherent file share protocol file share SMB connect network share citation enterprise ATTCKIn control system environment malware use SMB file share protocol laterally industrial network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt disrupt essential component system prevent owner operator deliver product service   citation Michael J Assante Robert M Lee    leverage malware delete encrypt critical datum HMIs workstation database 2021 Colonial Pipeline ransomware incident pipeline operation temporally halt 7th fully restart 12th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  seek achieve sustained loss control runaway condition operator issue command malicious interference subside   citation Michael J Assante Robert M Lee German Federal Office Information Security BSI report targeted attack steel mill 2014 Security Report target attack affect industrial operation result breakdown control system component entire installation result breakdown massive impact result damage unsafe condition uncontrolled shutdown blast furnace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cause loss productivity revenue disruption damage availability integrity control system operation device relate process technique manifest direct effect ICS target attack tangentially target attack non segregated environment case operation service bring halt loss productivity eventually present impact end user consumer product service disrupt supply chain result supply shortage increase price consequence ransomware attack australian beverage company result shutdown manufacture site include precautionary halt protect key system citation Paganini Pierluigi June 2020 company announce potential temporary shortage product follow attack citation Paganini Pierluigi June 2020   2021 Colonial Pipeline ransomware incident pipeline unable transport approximately 25 million barrel fuel day East Coast  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  compromise protective system function design prevent effect fault abnormal condition result equipment damage prolonged process disruption hazard personnel fault abnormal condition process control happen quickly human operator react speed critical correct condition limit impact Loss Control Property Damage   target disable protective system function prerequisite subsequent attack execution allow future fault abnormal condition unchecked detection Loss Protection operator result shutdown process strict policy protection system cause Loss Productivity Revenue meet technical goal seek cause process disruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  compromise safety system function design maintain safe operation process unacceptable dangerous condition occur safety system compose element control system sole purpose ensure process fail predetermine safe manner unsafe condition process control happen quickly human operator react speed critical correct condition limit impact Loss Control Property Damage   target disable safety system function prerequisite subsequent attack execution allow future unsafe conditional unchecked detection Loss Safety operator result shutdown process strict policy safety system cause Loss Productivity Revenue meet technical goal seek cause process disruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cause sustained permanent loss view ICS equipment require local hand operator intervention instance restart manual operation cause sustained reporting visibility loss   effectively hide present state operation loss view occur affect physical process   citation Michael J Assante Robert M Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  manipulate o image PLCs mean prevent function expect method o image manipulation include override o table direct memory manipulation override function test PLC program citation Dr Kelvin T Erickson December 2010 scan cycle PLC read status input store image table citation Nanjundaiah Vaidyanath image table PLCs internal storage location value input output scan store execute user program PLC solve entire logic program update output image table content output image table write correspond output point O Modules unique characteristic PLCs ability override status physical discrete input override logic drive physical output coil force output desire status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  manipulate physical process control industrial environment method manipulate control include change set point value tag parameter   manipulate control system device possibly leverage communicate command physical control process duration manipulation temporary long sustain depend operator detection    method Manipulation Control include man middle   Spoof command message change setpoint   polish student remote controller device interface Lodz city tram system Poland     remote student able capture replay legitimate tram signal consequence tram derail people injure result emergency stop   track control command issue result tram collision risk board nearby area impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt manipulate information report operator controller manipulation short term sustain time process different state report   citation Michael J Assante Robert M Lee   operator fool harmful system loss view situation manipulated view system operator issue inappropriate control sequence introduce fault catastrophic failure system business analysis system provide inaccurate datum lead bad management decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use masquerade disguise malicious application executable file avoid operator engineer suspicion possible disguise masquerade file include commonly find program expect vendor executable configuration file commonplace application naming convention impersonate expect vendor relevant file application operator engineer notice presence underlie malicious content possibly end run masquerade legitimate function application file commonly find Windows system engineering workstation impersonate simple rename file effectively disguise ICS environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  modify alarm setting prevent alert inform operator presence prevent response dangerous unintended scenario report message standard datum acquisition control system report message way transmit system state information acknowledgement specific action occur message provide vital information management physical process operator engineer administrator aware state system device physical process able change reporting setting certain event prevent report type modification prevent operator device perform action system safe state critical reporting message trigger action   occur ICS environment   use   contend multiple alarm andor alarm propagation achieve specific goal evade detection prevent intend response occur citation Jos Wetzels Marina Krotofil 2019   method suppression rely modification alarm setting modifying memory code fix value tamper assembly level instruction code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  modify tasking controller allow execution program allow manipulate execution flow behavior controller accord 61131 3 association task Program Organization Unit POU define task association    modify association create new one manipulate execution flow controller modification controller tasking accomplish Program Download addition type program modification online edit program append task property interval frequency priority meet requirement program execution controller vendor implement task implicit pre define property allow property formulate explicitly   associate program task high priority execute associated program frequently instance ensure cyclic execution program Siemens controller add program task Organization Block 1 ob1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  modify parameter instruct industrial control system device device operate program dictate perform action base parameter parameter determine extent action perform specify additional option example program control system device dictate motor process parameter define total number second run motor        potentially modify parameter produce outcome outside intend operator modify system process critical parameter   cause   equipment andor control process modify parameter turn dangerous bound unexpected value typical operation example specify process run time dictate unusually high low invalid value parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  modify add program controller affect interact physical process peripheral device host network modification controller program accomplish Program Download addition type program modification online edit program append program modification encompass addition modification instruction logic contain Program Organization Units POU    similar programming element find controller include example add new function controller modify logic exist function make new call function program allow interact directly native api controller advantage obscure feature vulnerability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  install malicious vulnerable firmware modular hardware device control system device contain modular hardware device device set firmware separate firmware main control system equipment    technique similar conduct system component capability level integrity checking result device image malicious device firmware provide persistent access remain device citation Daniel Peck   Dale Peterson January 2009   easy point access Ethernet card cpu RAM operating system   attack likely exploit computer Ethernet card exploitation Ethernet card computer enable accomplish additional attack following citation Daniel Peck   Dale Peterson January 2009   delay Attack   stage attack advance choose launch particularly damaging time   brick Ethernet card malicious firmware program result Ethernet card failure require factory return   Random Attack Failure   load malicious firmware multiple field device execution attack time occur generate pseudo random number generator    field device Worm   choose identify field device model end goal perform device wide compromise   Attack Cards field device important module field device Ethernet card accessible malware compromise Ethernet card provide direct route compromise module cpu module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  gather information physical process state information gain information process trigger malicious action source process state information vary OPC tag historian datum specific PLC block information network traffic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  directly interact native os application programming interface API access system function native api provide control mean call low level os service kernel involve hardware device memory process   native api leverage os system boot system component initialize carry task request routine operation functionality provide native api expose user mode application interface library example function memcpy direct operation memory register modify user system memory space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  perform network connection enumeration discover information device communication pattern   inspect state network connection tool Netstat conjunction determine role certain device network     use   watch network traffic detail source destination protocol content</t>
+  </si>
+  <si>
+    <t>network sniff practice network interface computer system monitor capture information citation Enterprise ATTCK January 2018 regardless specified destination information   attempt sniff traffic gain information target information vary level importance relatively unimportant information general communication machine   relatively important information login information user credential send unencrypted protocol Telnet capture obtain network packet analysis addition ARP Domain Service DNS poisoning capture credential website proxy internal system redirect traffic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  collect point tag value gain comprehensive understanding process environment point value input memory location output process specific variable citation Dennis L Sloatman September 2016 tag identifier give point operator convenience collect tag provide valuable context environmental point enable map input output value control process understand point collect inform process value track course operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  perform program download transfer user program controller variation program download online edit program append allow controller continue run transfer reconfiguration process interruption process control start program download ie download controller need stop state negative consequence physical process especially controller able fulfill time sensitive action   choose avoid download favor online edit program append avoid disrupt physical process   need use technique Detect Operating Mode Change Operating Mode sure controller proper mode accept program download granularity control transfer user program part dictate management protocol eg S7CommPlus TriStation underlie controller API program download high level term suite vendor specific api call configure controller user program memory space      represent configuration change transfer controller program download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt upload program PLC gather information industrial process upload program allow acquire study underlying logic method program upload include vendor software enable user upload read program run PLC software upload target program workstation jump box interfacing device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt infect project file malicious code project file consist object program organization unit variable tag documentation configuration need PLC program function   build function engineering software   able download infected program PLC operate environment enable     technique    export code project file condition execute specific interval citation Nicolas Falliere Liam O Murchu Eric Chien February 2011 malicious program allow control aspect process enable PLC project file download PLC workstation device disconnect infected project file execute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  leverage remote service asset network segment service allow operator interact system remotely network example RDP SMB SSH similar mechanism citation Blake Johnson Dan Caban Marina Krotofil Dan Scali Nathan Brubaker Christopher Glyer December 2017    Remote service support remote access datum transmission authentication resolution remote function remote service necessary allow operator administrator configure system network engineering management workstation   use technique access device dual homed citation Blake Johnson Dan Caban Marina Krotofil Dan Scali Nathan Brubaker Christopher Glyer December 2017 multiple network segment   execute attack control device directly Specific remote service RDP VNC precursor enable   execution device HMIs engineering workstation software base incident datum CISA FBI assess chinese state sponsor actor compromise authorize remote access channel include system design transfer datum andor allow access corporate ICS network   citation CISA AA21 201A Pipeline Intrusion July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt listing system IP address hostname logical identifier network subsequent Lateral Movement Discovery technique functionality exist tool enable utility available operating system vendor software citation Enterprise ATTCK January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt detailed information remote system peripheral model role configuration   use information Remote System Information Discovery aid target shape follow behavior example system operational role model information dictate relevant target operational objective addition system configuration scope subsequent technique usage request system information typically implement automation management protocol automatically request vendor software normal operation information tailor management action program download system module firmware   leverage information issue call directly system api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  system separate enterprise network copy malware removable medium insert control system environment   rely unknowe trust party supplier contractor access privilege introduce removable medium technique enable initial access target device connect untrusted network physically accessible      operator german nuclear power plant Gundremmingen discover malware facility computer connect internet    malware include Conficker W32Ramnit find eighteen removable disk drive facility citation Christoph Steitz Eric Auchard April 2016       plant check infection clean 1000 computer   ESET researcher comment internet disconnection guarantee system safety infection payload execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  setup rogue master leverage control server function communicate outstation rogue master send legitimate control message control system device affect process unintended way disrupt network communication capture receive network traffic mean actual master impersonate master allow avoid detection case 2017 Dallas Siren incident rogue master send command message 156 distribute siren city single rogue transmitter strong signal distribute repeater  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  deploy rootkit hide presence program file network connection service driver system component rootkit program hide existence malware intercept modify operating system api call supply system information rootkit rootkit enable functionality reside user kernel level operating system low citation Enterprise ATTCK January 2018    firmware rootkit affect operating system yield nearly control system firmware rootkit normally develop main processing board develop o attach asset compromise firmware allow modification process variable function module engage result command disregarded false information feed main device tamper device process   inhibit expect response function possibly enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  attempt perform screen capture device control system environment screenshot take workstation hmi device display environment relevant process device reporting alarm related datum device display reveal information ICS process layout control related schematic particular HMI provide lot important industrial process information citation ICS CERT October 2017 analysis screen capture provide understanding intended operation interaction critical device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use scripting language execute arbitrary code form pre write script form user supply code interpreter scripting language program language differ compile language scripting language use interpreter instead compiler interpreter read compile source code execute oppose compiler compile line code executable file scripting allow software developer run code system interpreter exist way distribute package instead precompile executable different system scripting language Python interpreter ship default Linux distribution addition useful tool developer administrator script language interpreter abuse execute code target environment nature scripting language allow weaponize code deploy target easily leave open possibility fly scripting perform task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  stop disable service system render service unavailable legitimate user stop critical service inhibit stop response incident aid overall objective cause damage environment citation Enterprise ATTCK   service allow modification datum store run   stop service conduct Data Destruction citation Enterprise ATTCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  use spearphishe attachment variant spearphishing form social engineering attack specific target spearphishing attachment different form spearphishe employ malware attach email form spearphishing electronically deliver target specific individual company industry scenario attach file spearphishing email usually rely   gain execution access citation Enterprise ATTCK October 2019 chinese spearphishe campaign run December 9 2011 February 29 2012 target ONG organization employee email construct high level sophistication convince employee open malicious file attachment citation CISA AA21 201A Pipeline Intrusion July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  spoof report message control system environment evasion impair process control control system report message contain telemetry datum eg o value pertain current state equipment industrial process report message important monitor normal operation system identify important event deviation expect value ability Spoof Reporting Messages impact control system way   Spoof Reporting Messages state process operate normally form evasion Spoof report message defender operator think error occur distract actual source problem citation Bonnie Zhu Anthony Joseph Shankar Sastry 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  establish command control capability commonly application layer protocol HTTPS OPC RDP telnet DNP3 modbus protocol disguise action benign network traffic standard protocol see associate port case non standard port    use protocol reach network command control case infect device network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  perform supply chain compromise gain control system environment access mean infected product software workflow supply chain compromise manipulation product device software delivery mechanism receipt end consumer compromise product mechanism goal datum system compromise infect product introduce target environment supply chain compromise occur stage supply chain manipulation development tool environment manipulation develop product tool distribution mechanism involve compromise replacement legitimate software patch party vendor website target supply chain compromise attempt infiltrate environment specific audience control system environment asset OT network possible supply chain compromise affect environment enable access OT environment    counterfeit device introduce global supply chain pose safety cyber risk asset owner operator device meet safety engineering manufacturing requirement regulatory body feature tag indicate conformance industry standard lack adherence standard overall less quality counterfeit product pose safety operational risk   Yokogawa identify instance customer receive counterfeit differential pressure transmitter Yokogawa logo counterfeit transmitter nearly indistinguishable semblance functionality interface mimic genuine product   F Secure Labs analyze approach compromise victim system Havex citation Daavid Hentunen Antti Tikkanen June 2014 plant trojanize software installer available legitimate ICS SCADA vendor website download software infect host computer Remote Access Trojan RAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bypass process andor signature base defense proxying execution malicious content sign trust binary binary technique Microsoft sign file indicate download Microsoft native operating system   binary sign trust digital certificate typically execute Windows system protect digital signature validation Microsoft sign binary default Windows installation proxy execution file command similarly Linux system   abuse trust binary split proxy execution malicious command   abuse application binary instal system proxy execution malicious code domain specific command command target local resource device networked device environment define api application specific programming language eg MicroSCADA SCIL application binary sign developer generally trust operator analyst monitoring tool accustom environment application develop andor directly provide device vendor enable configuration management operation device alternative   seek target trust application binary execute send command development custom malware example   target SCADA server binary exist ability send command substation device IEC 104 command message proxy execution require development custom tool hook application binary execution</t>
+  </si>
+  <si>
+    <t>system firmware modern asset design update feature old device firmware factory instal require special reprograming equipment available firmware update feature enable vendor remotely patch bug perform upgrade device firmware update delegate user software update package possible perform task network   exploit firmware update feature accessible device upload malicious date firmware malicious modification device firmware provide root access device give firmware low programming abstraction layer citation Basnight Zachry et al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  steal operational information production environment direct mission outcome personal gain inform future operation information include design document schedule rotational datum similar artifact provide insight operation     Bowman Dam incident probe system operational datum  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  target device transient ICS network external network normally transient asset bring environment authorize personnel remain environment permanent basis   Transient asset commonly need support management function common system remotely manage asset feasible external connection remote access exist 3rd party contractor vendor access require   advantage transient asset different way instance   target transient asset connect external network leverage trust access environment launch attack advantage instal application library legitimate end user interact control system device transient asset case deploy secure configuration lead weakness allow propagate malicious executable code eg transient asset infect malware connect ICS environment malware propagate system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  send unauthorized command message instruct control system asset perform action outside intended functionality logical precondition trigger expect function command message ICS network direct instruction control system device   send unauthorized command message control system instruct control system device perform action outside normal bound device action potentially instruct control system device perform action cause citation Bonnie Zhu Anthony Joseph Shankar Sastry 2011In Dallas Siren incident able send command message activate tornado alarm system city impending tornado disaster  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rely target organization user interaction execution malicious code user interaction consist instal application open email attachment grant high permission document   embe malicious code visual basic code file Microsoft Word Excel document software installer   execution code require user enable scripting write access document embed code noticeable user especially case trojanize software citation Daavid Hentunen Antti Tikkanen June 2014 chinese spearphishe campaign run December 9 2011 February 29 2012 deliver malware spearphishing attachment require user action achieve execution citation CISA AA21 201A Pipeline Intrusion July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  steal credential specific user service account credential access technique case default credential control system device publicly available compromised credential bypass access control place resource host network persistent access remote system compromised default credential grant increase privilege specific system device access restricted area network   choose use malware tool conjunction legitimate access credential provide hard detect presence control device send legitimate command unintended way   create account predefine account name password provide mean backup access persistence   overlap credential permission network system concern   able pivot account system reach high level access ie domain enterprise administrator   possibly enterprise operational technology environment   able leverage valid credential system gain access system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  perform wireless compromise method gain communication unauthorized access wireless network access wireless network gain compromise wireless device citation Alexander Bolshev Gleb Cherbov July 2014    utilize radio wireless communication device frequency wireless network wireless compromise initial access vector remote distance polish student modify tv remote controller gain access control Lodz city tram system Poland    remote controller device allow student interface trams network modify track setting override operator control   accomplish align controller frequency amplitude IR control protocol signal   controller enable initial access network allow capture replay tram signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  seek capture radio frequency RF communication remote control reporting distribute environment rf communication frequency vary 3 kHz 300 GHz commonly 300 mhz 6 GHz citation Candell R Hany M Lee K B Liu Y Quimby J Remley K April 2018   wavelength frequency signal affect signal propagate open air obstacle eg wall tree type radio require capture characteristic standardize protocol hardware effect signal capture example wireless protocol find cyber physical environment wirelesshart Zigbee WIA FA 700 mhz Public Safety Spectrum   capture RF communication specialized hardware software define radio SDR handheld radio computer radio demodulator tune communication frequency   information transmit wireless medium capture transit sniff device intended destination technique particularly useful communication encrypt citation Gallagher S April 2017 2017 Dallas Siren incident suspect likely capture wireless command message broadcast 700 mhz frequency regular test system message later replay trigger alarm system citation Gallagher S April 2017</t>
   </si>
   <si>
     <t>leave, activate, expect, engage, monitoring</t>
   </si>
   <si>
-    <t>allow, modify, seek, intercept, establish</t>
-  </si>
-  <si>
-    <t>raise, target, imply, note, attempt</t>
+    <t>allow, seek, intercept, establish, modify</t>
+  </si>
+  <si>
+    <t>raise, target, imply, attempt, prevent</t>
   </si>
   <si>
     <t>automated, gather, allow, attach</t>
@@ -1592,25 +1598,25 @@
     <t>execute, enable, run, mean, map</t>
   </si>
   <si>
-    <t>reach, intended, provide, sharing</t>
+    <t>reach, intended, provide, blocked</t>
   </si>
   <si>
     <t>reporting, block, reach, intended, contain</t>
   </si>
   <si>
-    <t>reach, allow, receive, use, send</t>
+    <t>block, reach, allow, receive, use</t>
   </si>
   <si>
     <t>achieve, change, perform, choose, use</t>
   </si>
   <si>
-    <t>modify, require, provide, depend, prevent</t>
-  </si>
-  <si>
-    <t>allow, change, stop, reset, gain</t>
-  </si>
-  <si>
-    <t>execute, run, utilize, provide, mean</t>
+    <t>require, provide, modify, depend, prevent</t>
+  </si>
+  <si>
+    <t>change, allow, stop, gain, implement</t>
+  </si>
+  <si>
+    <t>run, execute, utilize, provide, mean</t>
   </si>
   <si>
     <t>communicate, blend, avoid, use, provide</t>
@@ -1628,7 +1634,7 @@
     <t>include, collect, contain, provide, understanding</t>
   </si>
   <si>
-    <t>collect, include, scripting](https://attack.mitre.org, gather, use</t>
+    <t>collect, include, gather, use</t>
   </si>
   <si>
     <t>publish, set, mean, modify</t>
@@ -1637,13 +1643,13 @@
     <t>cause, prevent, deny, affected, operate</t>
   </si>
   <si>
-    <t>expect, send, execute, perform, include</t>
+    <t>expect, send, execute, exploit, perform</t>
   </si>
   <si>
     <t>cause, disrupt, manifest, cease, deny</t>
   </si>
   <si>
-    <t>allow, run, stop, reset, gather</t>
+    <t>run, operating, allow, stop, gather</t>
   </si>
   <si>
     <t>disrupt, impact, exist, build, execute</t>
@@ -1670,7 +1676,7 @@
     <t>enable, allow, leverage, connect, manage</t>
   </si>
   <si>
-    <t>attempt, gain, allow, oppose, use</t>
+    <t>allow, attempt, gain, enhance, oppose</t>
   </si>
   <si>
     <t>gain, include, change, cause, utilize</t>
@@ -1688,7 +1694,7 @@
     <t>expose, gain, allow, represent, utilize</t>
   </si>
   <si>
-    <t>transfer, perform, connected, share, use</t>
+    <t>transfer, copying, perform, use</t>
   </si>
   <si>
     <t>disrupt, deliver, halt, restart</t>
@@ -1742,7 +1748,7 @@
     <t>provide, interact, mean, call, involve</t>
   </si>
   <si>
-    <t>perform, inspect, determine, use</t>
+    <t>perform, inspect, determine</t>
   </si>
   <si>
     <t>capture, specified, attempt, gain, send</t>
@@ -1751,19 +1757,19 @@
     <t>collect, gain, give, provide, enable</t>
   </si>
   <si>
-    <t>controller, avoid, perform, allow, run</t>
+    <t>avoid, perform, allow, run, stop</t>
   </si>
   <si>
     <t>gather, allow, underlying, include, enable</t>
   </si>
   <si>
-    <t>infected, enable, attempt, build, execute</t>
-  </si>
-  <si>
-    <t>allow, use, homed, rdp, enable</t>
-  </si>
-  <si>
-    <t>attempt, listing, hostname, exist</t>
+    <t>infected, enable, attempt, need, build</t>
+  </si>
+  <si>
+    <t>allow, use, homed, execute, enable</t>
+  </si>
+  <si>
+    <t>attempt, hostname, exist</t>
   </si>
   <si>
     <t>attempt, use, dictate, implement, request</t>
@@ -1799,7 +1805,7 @@
     <t>introduce, pose, perform, gain, mean</t>
   </si>
   <si>
-    <t>send, indicate, execute, protect, split</t>
+    <t>send, indicate, execute, protect, sign</t>
   </si>
   <si>
     <t>perform, require, enable, patch, upgrade</t>
@@ -1817,7 +1823,7 @@
     <t>consist, grant, embe, require, enable</t>
   </si>
   <si>
-    <t>provide, steal, restricted, send, create</t>
+    <t>compromised, provide, steal, restricted, send</t>
   </si>
   <si>
     <t>gain, modify, allow, perform, utilize</t>
@@ -1829,7 +1835,7 @@
     <t>mode, firmware, device, update, function</t>
   </si>
   <si>
-    <t>attack, technique, network, traffic, block</t>
+    <t>attack, network, traffic, access, modify</t>
   </si>
   <si>
     <t>alarm, system, suppression, message, reporting</t>
@@ -1838,37 +1844,37 @@
     <t>collection, environment, information, tool, control</t>
   </si>
   <si>
-    <t>code, autorun, device, system, image</t>
-  </si>
-  <si>
-    <t>command, message, block, control, system</t>
-  </si>
-  <si>
-    <t>message, system, control, reporting, process</t>
-  </si>
-  <si>
-    <t>com, device, port, block, ethernet</t>
-  </si>
-  <si>
-    <t>point, value, o, force, process</t>
-  </si>
-  <si>
-    <t>device, credential, access, configuration, action</t>
+    <t>code, device, system, machine, image</t>
+  </si>
+  <si>
+    <t>command, message, citation, block, target</t>
+  </si>
+  <si>
+    <t>message, system, control, block, report</t>
+  </si>
+  <si>
+    <t>device, port, com, converter, command</t>
+  </si>
+  <si>
+    <t>point, value, process, target, range</t>
+  </si>
+  <si>
+    <t>device, access, configuration, credential, action</t>
   </si>
   <si>
     <t>mode, program, controller, device, output</t>
   </si>
   <si>
-    <t>command, system, cli, permission, line</t>
+    <t>command, system, cli, interface, permission</t>
   </si>
   <si>
     <t>port, network, protocol, bypass, firewall</t>
   </si>
   <si>
-    <t>network, connection, trust, relationship, proxy</t>
-  </si>
-  <si>
-    <t>damage, technique, result, attack, system</t>
+    <t>network, connection, trust, communication, relationship</t>
+  </si>
+  <si>
+    <t>damage, result, attack, system, property</t>
   </si>
   <si>
     <t>file, datum, destruction, course, tool</t>
@@ -1877,7 +1883,7 @@
     <t>information, system, process, datum, repository</t>
   </si>
   <si>
-    <t>system, technique, file, datum, target</t>
+    <t>system, file, datum, target, source</t>
   </si>
   <si>
     <t>device, default, credential, leverage, manufacturer</t>
@@ -1886,28 +1892,28 @@
     <t>control, process, operator, loss, denial</t>
   </si>
   <si>
-    <t>device, service, denial, request, software</t>
+    <t>device, denial, dos, request, software</t>
   </si>
   <si>
     <t>prevent, operator, view, attempt, status</t>
   </si>
   <si>
-    <t>mode, program, operating, device, output</t>
+    <t>mode, program, device, output, force</t>
   </si>
   <si>
     <t>device, restart, shutdown, functionality, environment</t>
   </si>
   <si>
-    <t>target, website, compromise, infrastructure, access</t>
-  </si>
-  <si>
-    <t>software, leverage, application, program, interface</t>
+    <t>target, website, compromise, access, user</t>
+  </si>
+  <si>
+    <t>software, leverage, communication, control, hardware</t>
   </si>
   <si>
     <t>application, internet, face, access, network</t>
   </si>
   <si>
-    <t>software, system, security, feature, device</t>
+    <t>software, security, feature, device, vulnerability</t>
   </si>
   <si>
     <t>system, software, permission, access, vulnerability</t>
@@ -1919,46 +1925,46 @@
     <t>access, service, network, system, control</t>
   </si>
   <si>
-    <t>access, user, machine, base, operating</t>
+    <t>access, machine, user, base, operating</t>
   </si>
   <si>
     <t>credential, asset, hardcode, system, owner</t>
   </si>
   <si>
-    <t>function, api, process, hooking, call</t>
-  </si>
-  <si>
-    <t>image, table, output, value, input</t>
+    <t>function, process, api, call, citation</t>
+  </si>
+  <si>
+    <t>image, output, table, value, input</t>
   </si>
   <si>
     <t>attempt, indicator, presence, system, effort</t>
   </si>
   <si>
-    <t>access, internet, technique, device, environment</t>
-  </si>
-  <si>
-    <t>file, system, share, tool, citation</t>
-  </si>
-  <si>
-    <t>pipeline, attempt, component, system, prevent</t>
-  </si>
-  <si>
-    <t>control, condition, security, report, attack</t>
+    <t>access, internet, environment, system, protection</t>
+  </si>
+  <si>
+    <t>file, share, system, tool, citation</t>
+  </si>
+  <si>
+    <t>attempt, component, system, prevent, owner</t>
+  </si>
+  <si>
+    <t>control, condition, attack, breakdown, loss</t>
   </si>
   <si>
     <t>attack, loss, productivity, system, operation</t>
   </si>
   <si>
-    <t>condition, process, system, loss, function</t>
-  </si>
-  <si>
-    <t>safety, system, process, condition, control</t>
-  </si>
-  <si>
-    <t>loss, view, operation, ics, equipment</t>
-  </si>
-  <si>
-    <t>image, output, table, o, override</t>
+    <t>condition, process, system, function, disruption</t>
+  </si>
+  <si>
+    <t>system, process, safety, condition, function</t>
+  </si>
+  <si>
+    <t>loss, view, operation, equipment, hand</t>
+  </si>
+  <si>
+    <t>image, output, table, override, o</t>
   </si>
   <si>
     <t>control, command, manipulate, process, change</t>
@@ -1982,16 +1988,16 @@
     <t>program, controller, modification, function, addition</t>
   </si>
   <si>
-    <t>device, card, ethernet, attack, system</t>
+    <t>device, card, field, system, attack</t>
   </si>
   <si>
     <t>information, process, state, action, source</t>
   </si>
   <si>
-    <t>system, memory, application, operation, user</t>
-  </si>
-  <si>
-    <t>network, connection, device, technique, enumeration</t>
+    <t>system, api, memory, application, operation</t>
+  </si>
+  <si>
+    <t>network, connection, device, enumeration, information</t>
   </si>
   <si>
     <t>information, network, system, traffic, capture</t>
@@ -2009,16 +2015,16 @@
     <t>project, file, program, code, function</t>
   </si>
   <si>
-    <t>service, network, access, technique, system</t>
-  </si>
-  <si>
-    <t>system, ip, address, network, movement</t>
+    <t>service, network, access, system, citation</t>
+  </si>
+  <si>
+    <t>system, listing, address, network, technique</t>
   </si>
   <si>
     <t>information, system, model, role, configuration</t>
   </si>
   <si>
-    <t>system, network, access, facility, computer</t>
+    <t>system, network, access, plant, malware</t>
   </si>
   <si>
     <t>master, rogue, control, message, network</t>
@@ -2033,22 +2039,22 @@
     <t>language, scripting, interpreter, code, compile</t>
   </si>
   <si>
-    <t>service, citation, enterprise, datum, system</t>
+    <t>service, citation, Enterprise, ATTCK, system</t>
   </si>
   <si>
     <t>form, target, email, attachment, citation</t>
   </si>
   <si>
-    <t>message, report, spoof, control, system</t>
-  </si>
-  <si>
-    <t>network, command, protocol, port, case</t>
+    <t>message, control, system, report, process</t>
+  </si>
+  <si>
+    <t>protocol, network, command, port, case</t>
   </si>
   <si>
     <t>compromise, supply, chain, environment, product</t>
   </si>
   <si>
-    <t>execution, command, application, sign, trust</t>
+    <t>command, execution, application, trust, device</t>
   </si>
   <si>
     <t>firmware, update, device, feature, system</t>
@@ -3089,40 +3095,40 @@
         <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="O2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="Q2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="T2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3142,40 +3148,40 @@
         <v>268</v>
       </c>
       <c r="H3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P3" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R3">
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="T3" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3192,40 +3198,40 @@
         <v>187</v>
       </c>
       <c r="H4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M4" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="O4" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P4" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R4">
         <v>1.2</v>
       </c>
       <c r="S4" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="T4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3242,37 +3248,37 @@
         <v>188</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O5" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P5" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q5" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R5">
         <v>1.1</v>
       </c>
       <c r="T5" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3289,37 +3295,37 @@
         <v>189</v>
       </c>
       <c r="H6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M6" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="O6" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="P6" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q6" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -3336,37 +3342,37 @@
         <v>190</v>
       </c>
       <c r="H7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="O7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R7">
         <v>1.1</v>
       </c>
       <c r="T7" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -3383,37 +3389,37 @@
         <v>191</v>
       </c>
       <c r="H8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="O8" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P8" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q8" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -3430,37 +3436,37 @@
         <v>192</v>
       </c>
       <c r="H9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="O9" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P9" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q9" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R9">
         <v>1.1</v>
       </c>
       <c r="T9" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3477,37 +3483,37 @@
         <v>193</v>
       </c>
       <c r="H10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M10" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="O10" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P10" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q10" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R10">
         <v>1.1</v>
       </c>
       <c r="T10" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -3524,40 +3530,40 @@
         <v>194</v>
       </c>
       <c r="H11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K11" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L11" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M11" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="O11" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="P11" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q11" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="T11" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -3577,37 +3583,37 @@
         <v>269</v>
       </c>
       <c r="H12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K12" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L12" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M12" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="O12" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P12" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q12" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3624,37 +3630,37 @@
         <v>196</v>
       </c>
       <c r="H13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L13" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M13" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="O13" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P13" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q13" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R13">
         <v>1.1</v>
       </c>
       <c r="T13" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3671,40 +3677,40 @@
         <v>197</v>
       </c>
       <c r="H14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L14" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M14" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="O14" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P14" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q14" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R14">
         <v>1.1</v>
       </c>
       <c r="S14" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="T14" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3721,37 +3727,37 @@
         <v>198</v>
       </c>
       <c r="H15" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K15" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L15" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M15" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="O15" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P15" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q15" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R15">
         <v>1.1</v>
       </c>
       <c r="T15" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -3771,37 +3777,37 @@
         <v>270</v>
       </c>
       <c r="H16" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K16" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L16" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M16" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="O16" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P16" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q16" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R16">
         <v>1.1</v>
       </c>
       <c r="T16" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3818,40 +3824,40 @@
         <v>200</v>
       </c>
       <c r="H17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L17" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="O17" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P17" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q17" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="T17" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -3868,37 +3874,37 @@
         <v>201</v>
       </c>
       <c r="H18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J18" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K18" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L18" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M18" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="O18" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P18" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q18" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R18">
         <v>1.2</v>
       </c>
       <c r="T18" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3918,37 +3924,37 @@
         <v>271</v>
       </c>
       <c r="H19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J19" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K19" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L19" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="O19" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="P19" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q19" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -3965,37 +3971,37 @@
         <v>203</v>
       </c>
       <c r="H20" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K20" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L20" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M20" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="O20" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P20" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q20" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R20">
         <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -4012,37 +4018,37 @@
         <v>204</v>
       </c>
       <c r="H21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L21" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M21" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="O21" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P21" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q21" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R21">
         <v>1.1</v>
       </c>
       <c r="T21" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -4062,37 +4068,37 @@
         <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K22" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L22" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M22" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="O22" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P22" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q22" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R22">
         <v>1.1</v>
       </c>
       <c r="T22" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -4109,37 +4115,37 @@
         <v>206</v>
       </c>
       <c r="H23" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J23" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K23" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L23" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M23" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="O23" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P23" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q23" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R23">
         <v>1.1</v>
       </c>
       <c r="T23" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -4159,37 +4165,37 @@
         <v>269</v>
       </c>
       <c r="H24" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J24" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K24" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L24" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M24" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="O24" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P24" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q24" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -4206,37 +4212,37 @@
         <v>208</v>
       </c>
       <c r="H25" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J25" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K25" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L25" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M25" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="O25" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P25" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q25" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R25">
         <v>1.1</v>
       </c>
       <c r="T25" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -4253,37 +4259,37 @@
         <v>209</v>
       </c>
       <c r="H26" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K26" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L26" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M26" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="O26" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P26" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q26" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R26">
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -4300,37 +4306,37 @@
         <v>210</v>
       </c>
       <c r="H27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K27" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L27" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="O27" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P27" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q27" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R27">
         <v>1.1</v>
       </c>
       <c r="T27" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -4347,37 +4353,37 @@
         <v>211</v>
       </c>
       <c r="H28" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K28" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L28" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M28" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="O28" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P28" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q28" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="T28" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -4397,37 +4403,37 @@
         <v>273</v>
       </c>
       <c r="H29" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K29" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L29" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M29" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="O29" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P29" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q29" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R29">
         <v>1.1</v>
       </c>
       <c r="T29" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -4444,37 +4450,37 @@
         <v>213</v>
       </c>
       <c r="H30" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J30" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K30" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L30" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M30" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="O30" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="P30" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q30" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R30">
         <v>1.1</v>
       </c>
       <c r="T30" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -4491,37 +4497,37 @@
         <v>214</v>
       </c>
       <c r="H31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J31" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K31" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L31" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M31" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O31" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P31" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q31" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
       <c r="T31" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -4538,37 +4544,37 @@
         <v>215</v>
       </c>
       <c r="H32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K32" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L32" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M32" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="O32" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P32" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q32" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R32">
         <v>1.1</v>
       </c>
       <c r="T32" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -4585,37 +4591,37 @@
         <v>216</v>
       </c>
       <c r="H33" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J33" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K33" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L33" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M33" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="O33" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P33" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q33" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R33">
         <v>1.1</v>
       </c>
       <c r="T33" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -4635,40 +4641,40 @@
         <v>274</v>
       </c>
       <c r="H34" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K34" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L34" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M34" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="O34" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="P34" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q34" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R34">
         <v>1</v>
       </c>
       <c r="S34" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="T34" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -4685,37 +4691,37 @@
         <v>218</v>
       </c>
       <c r="H35" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J35" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K35" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L35" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M35" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="O35" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P35" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q35" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R35">
         <v>1.2</v>
       </c>
       <c r="T35" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -4735,37 +4741,37 @@
         <v>275</v>
       </c>
       <c r="H36" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L36" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="M36" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O36" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P36" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q36" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R36">
         <v>1.1</v>
       </c>
       <c r="T36" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -4782,37 +4788,37 @@
         <v>220</v>
       </c>
       <c r="H37" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J37" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L37" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M37" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="O37" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P37" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="Q37" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R37">
         <v>1</v>
       </c>
       <c r="T37" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4832,37 +4838,37 @@
         <v>276</v>
       </c>
       <c r="H38" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J38" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L38" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M38" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="O38" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P38" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q38" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="T38" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4879,37 +4885,37 @@
         <v>222</v>
       </c>
       <c r="H39" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J39" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K39" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L39" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M39" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="O39" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P39" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q39" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R39">
         <v>1.1</v>
       </c>
       <c r="T39" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4926,37 +4932,37 @@
         <v>223</v>
       </c>
       <c r="H40" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J40" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="L40" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M40" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="O40" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P40" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q40" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R40">
         <v>1</v>
       </c>
       <c r="T40" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4973,40 +4979,40 @@
         <v>224</v>
       </c>
       <c r="H41" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K41" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L41" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M41" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="O41" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P41" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q41" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R41">
         <v>1</v>
       </c>
       <c r="S41" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="T41" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -5023,37 +5029,37 @@
         <v>225</v>
       </c>
       <c r="H42" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J42" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K42" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L42" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M42" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="O42" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P42" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q42" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R42">
         <v>1</v>
       </c>
       <c r="T42" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -5070,37 +5076,37 @@
         <v>226</v>
       </c>
       <c r="H43" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J43" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L43" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M43" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="O43" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="P43" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q43" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R43">
         <v>1</v>
       </c>
       <c r="T43" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -5117,37 +5123,37 @@
         <v>227</v>
       </c>
       <c r="H44" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J44" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L44" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M44" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O44" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P44" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q44" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R44">
         <v>1</v>
       </c>
       <c r="T44" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -5164,37 +5170,37 @@
         <v>228</v>
       </c>
       <c r="H45" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J45" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L45" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M45" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="O45" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P45" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q45" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R45">
         <v>1</v>
       </c>
       <c r="T45" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -5211,37 +5217,37 @@
         <v>229</v>
       </c>
       <c r="H46" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J46" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L46" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M46" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="O46" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P46" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q46" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R46">
         <v>1.1</v>
       </c>
       <c r="T46" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -5258,37 +5264,37 @@
         <v>230</v>
       </c>
       <c r="H47" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J47" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K47" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L47" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M47" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="O47" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P47" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q47" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R47">
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -5305,37 +5311,37 @@
         <v>231</v>
       </c>
       <c r="H48" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J48" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K48" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L48" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M48" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="O48" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P48" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q48" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R48">
         <v>1</v>
       </c>
       <c r="T48" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -5352,37 +5358,37 @@
         <v>232</v>
       </c>
       <c r="H49" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J49" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L49" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M49" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="O49" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P49" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q49" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R49">
         <v>1.1</v>
       </c>
       <c r="T49" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -5402,37 +5408,37 @@
         <v>277</v>
       </c>
       <c r="H50" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J50" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K50" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L50" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M50" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="O50" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P50" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q50" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R50">
         <v>1.2</v>
       </c>
       <c r="T50" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -5449,37 +5455,37 @@
         <v>234</v>
       </c>
       <c r="H51" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J51" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K51" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L51" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M51" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="O51" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="P51" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q51" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R51">
         <v>1.2</v>
       </c>
       <c r="T51" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -5495,38 +5501,41 @@
       <c r="D52" t="s">
         <v>235</v>
       </c>
+      <c r="F52" t="s">
+        <v>278</v>
+      </c>
       <c r="H52" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J52" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K52" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L52" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M52" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="O52" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P52" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q52" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R52">
         <v>1.3</v>
       </c>
       <c r="T52" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -5543,37 +5552,37 @@
         <v>236</v>
       </c>
       <c r="H53" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J53" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K53" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L53" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M53" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="O53" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="P53" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q53" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R53">
         <v>1.2</v>
       </c>
       <c r="T53" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -5590,40 +5599,40 @@
         <v>237</v>
       </c>
       <c r="F54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H54" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J54" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K54" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L54" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M54" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="O54" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P54" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q54" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R54">
         <v>1.1</v>
       </c>
       <c r="T54" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -5640,37 +5649,37 @@
         <v>238</v>
       </c>
       <c r="H55" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J55" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K55" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L55" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M55" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="O55" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P55" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="Q55" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R55">
         <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -5687,37 +5696,37 @@
         <v>239</v>
       </c>
       <c r="H56" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J56" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K56" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L56" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M56" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="O56" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="P56" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q56" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R56">
         <v>1</v>
       </c>
       <c r="T56" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -5734,40 +5743,40 @@
         <v>240</v>
       </c>
       <c r="F57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H57" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J57" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K57" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L57" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M57" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="O57" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P57" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q57" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R57">
         <v>1.2</v>
       </c>
       <c r="T57" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -5784,37 +5793,37 @@
         <v>241</v>
       </c>
       <c r="H58" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J58" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K58" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L58" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M58" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="O58" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P58" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q58" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R58">
         <v>1</v>
       </c>
       <c r="T58" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -5831,40 +5840,40 @@
         <v>242</v>
       </c>
       <c r="H59" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J59" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K59" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L59" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M59" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O59" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P59" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q59" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R59">
         <v>1.1</v>
       </c>
       <c r="S59" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="T59" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -5881,40 +5890,40 @@
         <v>243</v>
       </c>
       <c r="F60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H60" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J60" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K60" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L60" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="M60" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="O60" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P60" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q60" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R60">
         <v>1.1</v>
       </c>
       <c r="T60" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -5931,37 +5940,37 @@
         <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J61" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K61" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M61" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="O61" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P61" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="Q61" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R61">
         <v>1</v>
       </c>
       <c r="T61" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -5977,38 +5986,41 @@
       <c r="D62" t="s">
         <v>245</v>
       </c>
+      <c r="F62" t="s">
+        <v>282</v>
+      </c>
       <c r="H62" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J62" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K62" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L62" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M62" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="O62" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P62" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q62" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R62">
         <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -6025,43 +6037,43 @@
         <v>246</v>
       </c>
       <c r="F63" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H63" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J63" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K63" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L63" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M63" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="O63" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="P63" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q63" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R63">
         <v>1.1</v>
       </c>
       <c r="S63" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="T63" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -6078,37 +6090,37 @@
         <v>247</v>
       </c>
       <c r="H64" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J64" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K64" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L64" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M64" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="O64" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P64" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q64" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R64">
         <v>1.1</v>
       </c>
       <c r="T64" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -6125,37 +6137,37 @@
         <v>248</v>
       </c>
       <c r="H65" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J65" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K65" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L65" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M65" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O65" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="P65" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q65" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R65">
         <v>1.1</v>
       </c>
       <c r="T65" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -6172,37 +6184,37 @@
         <v>249</v>
       </c>
       <c r="H66" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J66" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K66" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L66" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M66" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="O66" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P66" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q66" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R66">
         <v>1</v>
       </c>
       <c r="T66" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -6219,37 +6231,37 @@
         <v>250</v>
       </c>
       <c r="H67" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J67" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K67" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L67" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M67" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="O67" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P67" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q67" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R67">
         <v>1.2</v>
       </c>
       <c r="T67" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -6265,38 +6277,41 @@
       <c r="D68" t="s">
         <v>251</v>
       </c>
+      <c r="F68" t="s">
+        <v>278</v>
+      </c>
       <c r="H68" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J68" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K68" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L68" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M68" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O68" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P68" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q68" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R68">
         <v>1.1</v>
       </c>
       <c r="T68" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -6313,37 +6328,37 @@
         <v>252</v>
       </c>
       <c r="H69" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J69" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K69" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L69" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M69" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="O69" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P69" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="Q69" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R69">
         <v>1</v>
       </c>
       <c r="T69" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -6360,37 +6375,37 @@
         <v>253</v>
       </c>
       <c r="H70" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J70" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K70" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L70" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M70" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="O70" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P70" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q70" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R70">
         <v>1</v>
       </c>
       <c r="T70" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -6407,37 +6422,37 @@
         <v>254</v>
       </c>
       <c r="H71" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J71" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K71" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L71" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M71" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="O71" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P71" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q71" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R71">
         <v>1.1</v>
       </c>
       <c r="T71" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -6454,40 +6469,40 @@
         <v>255</v>
       </c>
       <c r="F72" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H72" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J72" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K72" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L72" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M72" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="O72" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P72" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q72" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R72">
         <v>1.1</v>
       </c>
       <c r="T72" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -6504,37 +6519,37 @@
         <v>256</v>
       </c>
       <c r="H73" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="J73" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K73" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L73" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M73" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="O73" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P73" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q73" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R73">
         <v>1.2</v>
       </c>
       <c r="T73" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -6551,37 +6566,37 @@
         <v>257</v>
       </c>
       <c r="H74" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J74" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K74" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L74" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M74" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="O74" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P74" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="Q74" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R74">
         <v>1</v>
       </c>
       <c r="T74" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -6598,37 +6613,37 @@
         <v>258</v>
       </c>
       <c r="H75" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J75" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K75" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M75" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="O75" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P75" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q75" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R75">
         <v>1.1</v>
       </c>
       <c r="T75" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -6645,40 +6660,40 @@
         <v>259</v>
       </c>
       <c r="F76" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H76" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J76" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K76" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L76" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="M76" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="O76" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="P76" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q76" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R76">
         <v>1</v>
       </c>
       <c r="T76" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -6695,37 +6710,37 @@
         <v>260</v>
       </c>
       <c r="H77" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J77" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K77" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L77" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M77" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="O77" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P77" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q77" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R77">
         <v>1.1</v>
       </c>
       <c r="T77" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -6742,37 +6757,37 @@
         <v>261</v>
       </c>
       <c r="H78" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J78" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K78" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L78" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M78" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="O78" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P78" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="Q78" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R78">
         <v>1</v>
       </c>
       <c r="T78" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -6789,37 +6804,37 @@
         <v>262</v>
       </c>
       <c r="H79" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J79" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K79" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L79" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M79" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="O79" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="P79" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q79" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R79">
         <v>1.2</v>
       </c>
       <c r="T79" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -6835,38 +6850,41 @@
       <c r="D80" t="s">
         <v>263</v>
       </c>
+      <c r="F80" t="s">
+        <v>278</v>
+      </c>
       <c r="H80" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J80" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K80" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L80" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M80" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="O80" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P80" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q80" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R80">
         <v>1.2</v>
       </c>
       <c r="T80" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -6883,37 +6901,37 @@
         <v>264</v>
       </c>
       <c r="H81" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J81" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K81" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L81" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M81" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="O81" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P81" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q81" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R81">
         <v>1.1</v>
       </c>
       <c r="T81" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -6930,37 +6948,37 @@
         <v>265</v>
       </c>
       <c r="H82" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="J82" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K82" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L82" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M82" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="O82" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P82" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q82" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R82">
         <v>1.1</v>
       </c>
       <c r="T82" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -6977,40 +6995,40 @@
         <v>266</v>
       </c>
       <c r="H83" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J83" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K83" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L83" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M83" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="O83" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P83" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="Q83" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R83">
         <v>1.2</v>
       </c>
       <c r="S83" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="T83" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -7027,40 +7045,40 @@
         <v>267</v>
       </c>
       <c r="H84" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J84" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K84" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L84" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M84" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="O84" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P84" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q84" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="R84">
         <v>1.1</v>
       </c>
       <c r="S84" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="T84" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
